--- a/dev-topics-algorithms/dev-topics-nasa-sensor/documentation/concepts.xlsx
+++ b/dev-topics-algorithms/dev-topics-nasa-sensor/documentation/concepts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>. . .</t>
   </si>
@@ -65,20 +65,50 @@
     <t>h*w - 1</t>
   </si>
   <si>
-    <t>Ordered in X1</t>
-  </si>
-  <si>
     <t>Intersected</t>
   </si>
   <si>
     <t>Unordered Input</t>
+  </si>
+  <si>
+    <t>8,3</t>
+  </si>
+  <si>
+    <t>0,3</t>
+  </si>
+  <si>
+    <t>4,0</t>
+  </si>
+  <si>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>2,0</t>
+  </si>
+  <si>
+    <t>Bounding Box</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>&lt;--------</t>
+  </si>
+  <si>
+    <t>(Lower Left)</t>
+  </si>
+  <si>
+    <t>Ordered by X1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +204,30 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -218,7 +272,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -256,6 +310,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -265,7 +399,7 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -289,7 +423,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="5" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="4" applyBorder="1"/>
@@ -302,6 +435,35 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="5" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="5" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="5" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="5" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -751,10 +913,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -764,203 +926,351 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A1" s="17" t="s">
-        <v>18</v>
+      <c r="A1" s="16" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="G3" s="12"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="M3" s="15"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
+      <c r="G3" s="11"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="M3" s="14"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="E4" s="10"/>
+      <c r="B4" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="E4" s="20" t="s">
+        <v>19</v>
+      </c>
       <c r="F4" s="10"/>
-      <c r="G4" s="12"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="M4" s="15"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
+      <c r="G4" s="11"/>
+      <c r="I4" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="M4" s="14"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="M5" s="15"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
+      <c r="M5" s="14"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="M6" s="15"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
+      <c r="M6" s="14"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="M7" s="15"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
+      <c r="M7" s="14"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="M8" s="15"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
+      <c r="M8" s="14"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="M9" s="15"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-    </row>
-    <row r="11" spans="1:17" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A11" s="17" t="s">
+      <c r="M9" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+    </row>
+    <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A10" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A11" s="45" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11"/>
+      <c r="F12" s="14"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B13" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11"/>
+      <c r="F13" s="14"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="L13" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="P13" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q13" s="12"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="F14" s="14"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="F15" s="14"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="F16" s="14"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="F17" s="22"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="F18" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A22" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="12"/>
-      <c r="F13" s="15"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="12"/>
-      <c r="F14" s="15"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F15" s="15"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F16" s="15"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="F17" s="15"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="F18" s="15"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="F19" s="15"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="F20" s="15"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A22" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="11"/>
-    </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="D23" s="11"/>
+      <c r="A23">
+        <v>10</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="J23" s="40" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="D24" s="11"/>
+      <c r="A24">
+        <v>9</v>
+      </c>
+      <c r="B24" s="29"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="31"/>
+      <c r="J24" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="D25" s="11"/>
+      <c r="A25">
+        <v>8</v>
+      </c>
+      <c r="B25" s="29"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="31"/>
+      <c r="J25" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="D26" s="15"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
+      <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26" s="29"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="31"/>
+      <c r="J26" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="D27" s="15"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27" s="29"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="31"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="18">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28" s="29"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="31"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29" s="32"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="17">
         <v>3</v>
       </c>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="18">
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="31"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="42"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A30">
         <v>3</v>
       </c>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="17">
+        <v>3</v>
+      </c>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="31"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="44"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="19">
+      <c r="A31">
         <v>2</v>
       </c>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="31"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="19">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" s="29"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="18">
         <v>2</v>
       </c>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="33"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33" s="34"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="37">
+        <v>2</v>
+      </c>
+      <c r="G33" s="38"/>
+      <c r="H33" s="39"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34">
+        <v>5</v>
+      </c>
+      <c r="H34">
+        <v>6</v>
+      </c>
+      <c r="I34">
+        <v>7</v>
+      </c>
+      <c r="J34">
+        <v>8</v>
+      </c>
+      <c r="K34">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dev-topics-algorithms/dev-topics-nasa-sensor/documentation/concepts.xlsx
+++ b/dev-topics-algorithms/dev-topics-nasa-sensor/documentation/concepts.xlsx
@@ -913,10 +913,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1083,7 +1083,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="26"/>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B24" s="29"/>
       <c r="C24" s="30"/>
@@ -1116,7 +1116,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25" s="29"/>
       <c r="C25" s="30"/>
@@ -1131,13 +1131,13 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B26" s="29"/>
       <c r="C26" s="30"/>
       <c r="D26" s="14"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
       <c r="G26" s="30"/>
       <c r="H26" s="31"/>
       <c r="J26" t="s">
@@ -1146,7 +1146,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27" s="29"/>
       <c r="C27" s="30"/>
@@ -1158,19 +1158,23 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>5</v>
-      </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="14"/>
+        <v>4</v>
+      </c>
+      <c r="B28" s="32"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="17">
+        <v>3</v>
+      </c>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
       <c r="G28" s="30"/>
       <c r="H28" s="31"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="42"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B29" s="32"/>
       <c r="C29" s="11"/>
@@ -1181,94 +1185,78 @@
       <c r="F29" s="15"/>
       <c r="G29" s="30"/>
       <c r="H29" s="31"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="42"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="44"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>3</v>
-      </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="17">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B30" s="29"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="15"/>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
       <c r="G30" s="30"/>
       <c r="H30" s="31"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="44"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31" s="29"/>
       <c r="C31" s="30"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="31"/>
+      <c r="F31" s="18">
+        <v>2</v>
+      </c>
+      <c r="G31" s="13"/>
+      <c r="H31" s="33"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32" s="34"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="37">
+        <v>2</v>
+      </c>
+      <c r="G32" s="38"/>
+      <c r="H32" s="39"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
         <v>1</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="18">
+      <c r="D33">
         <v>2</v>
       </c>
-      <c r="G32" s="13"/>
-      <c r="H32" s="33"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A33">
-        <v>0</v>
-      </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="37">
-        <v>2</v>
-      </c>
-      <c r="G33" s="38"/>
-      <c r="H33" s="39"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>2</v>
-      </c>
-      <c r="E34">
+      <c r="E33">
         <v>3</v>
       </c>
-      <c r="F34">
+      <c r="F33">
         <v>4</v>
       </c>
-      <c r="G34">
+      <c r="G33">
         <v>5</v>
       </c>
-      <c r="H34">
+      <c r="H33">
         <v>6</v>
       </c>
-      <c r="I34">
+      <c r="I33">
         <v>7</v>
       </c>
-      <c r="J34">
+      <c r="J33">
         <v>8</v>
       </c>
-      <c r="K34">
+      <c r="K33">
         <v>9</v>
       </c>
     </row>
